--- a/lecture/Bio_Data_Science/barplot_excel.xlsx
+++ b/lecture/Bio_Data_Science/barplot_excel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/Bio_Data_Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5DAAF99-7E1C-274E-91E8-E6A4ABA7EBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551EB44C-6912-564C-985B-35B859F58957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19740" activeTab="2" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19740" activeTab="3" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="1-faktoriell" sheetId="1" r:id="rId1"/>
     <sheet name="2-faktoriell" sheetId="3" r:id="rId2"/>
     <sheet name="Lineare Regression" sheetId="5" r:id="rId3"/>
+    <sheet name="t-Test" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="10">
   <si>
     <t>dose</t>
   </si>
@@ -74,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,8 +89,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +141,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -146,6 +161,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -169,18 +195,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,18 +1222,61 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="41275" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.41322200349956256"/>
+                  <c:y val="-1.408209390492855E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 0,3283e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="30000"/>
+                      <a:t>0,898x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>R² = 0,5836</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1226,10 +1309,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lineare Regression'!$A$2:$A$8</c:f>
+              <c:f>'Lineare Regression'!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.2</c:v>
                 </c:pt>
@@ -1251,15 +1334,30 @@
                 <c:pt idx="6">
                   <c:v>2.7</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lineare Regression'!$B$2:$B$8</c:f>
+              <c:f>'Lineare Regression'!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -1281,13 +1379,28 @@
                 <c:pt idx="6">
                   <c:v>2.8</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B23D-5445-AB58-730015528CAE}"/>
+              <c16:uniqueId val="{00000000-3C20-F644-85DE-EE5E40A84C37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1299,11 +1412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="625510304"/>
-        <c:axId val="611977280"/>
+        <c:axId val="672061584"/>
+        <c:axId val="1587795984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="625510304"/>
+        <c:axId val="672061584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,12 +1473,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611977280"/>
+        <c:crossAx val="1587795984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="611977280"/>
+        <c:axId val="1587795984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,7 +1535,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625510304"/>
+        <c:crossAx val="672061584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3124,16 +3237,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3206,23 +3319,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>118004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>645584</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>46037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC65406F-D6B3-94BF-DCB4-6ED724FD3FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DD62C6-A020-C11D-CBEA-2FA2DEFD4930}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3564,7 +3677,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3576,164 +3689,164 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>11.3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <f>AVERAGE(B2:B6)</f>
         <v>11.1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <f>_xlfn.STDEV.S(B2:B6)</f>
         <v>1.1379806676741042</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>12.5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <f>AVERAGE(B7:B11)</f>
         <v>15.219999999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <f>_xlfn.STDEV.S(B7:B11)</f>
         <v>0.92032602918748352</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>11.8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <f>AVERAGE(B12:B16)</f>
         <v>20.56</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <f>_xlfn.STDEV.S(B12:B16)</f>
         <v>1.9781304304822782</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>10.1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>15.2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>16.3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>15.9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>14.7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>20.100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>23.1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>19.399999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>18.2</v>
       </c>
     </row>
@@ -3750,7 +3863,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3765,413 +3878,413 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>0.2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>11.3</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
         <v>0.2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <v>0.5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="7">
         <v>0.2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>0.2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>12.5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <f>AVERAGE(C2:C6)</f>
         <v>11.1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="7">
         <f>AVERAGE(C17:C21)</f>
         <v>15.059999999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7">
         <f>_xlfn.STDEV.S(C2:C6)</f>
         <v>1.1379806676741042</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="7">
         <f>_xlfn.STDEV.S(C17:C21)</f>
         <v>2.0827865949251927</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>0.2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>11.8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <f>AVERAGE(C7:C11)</f>
         <v>15.219999999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <f>AVERAGE(C22:C26)</f>
         <v>18.3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <f>_xlfn.STDEV.S(C7:C11)</f>
         <v>0.92032602918748352</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="7">
         <f>_xlfn.STDEV.S(C22:C26)</f>
         <v>3.5874782229304123</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>0.2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>10.1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <f>AVERAGE(C12:C16)</f>
         <v>20.56</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <f>AVERAGE(C27:C31)</f>
         <v>28</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <f>_xlfn.STDEV.S(C12:C16)</f>
         <v>1.9781304304822782</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="7">
         <f>_xlfn.STDEV.S(C27:C31)</f>
         <v>2.9765752132274419</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>0.2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>0.2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>15.2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>0.2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>0.2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>16.3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>0.2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>15.9</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>0.2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>14.7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>0.2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>20.100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>0.2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>0.2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>23.1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>0.2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>19.399999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="8">
         <v>0.2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <v>18.2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="9">
         <v>0.5</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="9">
         <v>14.2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="9">
         <v>0.5</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="9">
         <v>15.6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="9">
         <v>0.5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="9">
         <v>12.4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="9">
         <v>0.5</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="9">
         <v>18.100000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="9">
         <v>0.5</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="10">
         <v>0.5</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="10">
         <v>12.4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="10">
         <v>0.5</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="10">
         <v>18.600000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="10">
         <v>0.5</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="10">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="10">
         <v>0.5</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="10">
         <v>20.2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="10">
         <v>0.5</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="10">
         <v>21.9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="11">
         <v>0.5</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="11">
         <v>25.3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="11">
         <v>0.5</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="11">
         <v>28.2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="11">
         <v>0.5</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="11">
         <v>29.1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="11">
         <v>0.5</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="11">
         <v>32.299999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="11">
         <v>0.5</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="11">
         <v>25.1</v>
       </c>
     </row>
@@ -4187,80 +4300,289 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA17F9C-E314-0846-BC1F-891C9752F150}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:E21"/>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.78524945069896457</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="B11" s="15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B12" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="B13" s="15">
+        <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDD73C3-8093-E542-9966-37106AA01CA5}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1.2</v>
-      </c>
-      <c r="B2">
-        <v>0.8</v>
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>11.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1.8</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1.3</v>
-      </c>
-      <c r="B4">
-        <v>1.2</v>
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>11.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1.7</v>
-      </c>
-      <c r="B5">
-        <v>1.9</v>
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10.1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2.6</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1.8</v>
-      </c>
-      <c r="B7">
-        <v>2.7</v>
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>15.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2.7</v>
-      </c>
-      <c r="B8">
-        <v>2.8</v>
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6">
+        <v>18.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lecture/Bio_Data_Science/barplot_excel.xlsx
+++ b/lecture/Bio_Data_Science/barplot_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/Bio_Data_Science/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\teaching\lecture\Bio_Data_Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551EB44C-6912-564C-985B-35B859F58957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522F65BA-F290-49B2-A617-98DC9C5F535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19740" activeTab="3" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="1-faktoriell" sheetId="1" r:id="rId1"/>
@@ -195,11 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -210,9 +209,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -221,6 +217,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3680,173 +3679,173 @@
       <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>11.3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>AVERAGE(B2:B6)</f>
         <v>11.1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>_xlfn.STDEV.S(B2:B6)</f>
         <v>1.1379806676741042</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>12.5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>AVERAGE(B7:B11)</f>
         <v>15.219999999999999</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>_xlfn.STDEV.S(B7:B11)</f>
         <v>0.92032602918748352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>11.8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>AVERAGE(B12:B16)</f>
         <v>20.56</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>_xlfn.STDEV.S(B12:B16)</f>
         <v>1.9781304304822782</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>10.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>15.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>16.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>15.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>14.7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>23.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>18.2</v>
       </c>
     </row>
@@ -3863,12 +3862,12 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3878,413 +3877,413 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>0.2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>11.3</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <v>0.2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.5</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>12.5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>AVERAGE(C2:C6)</f>
         <v>11.1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>AVERAGE(C17:C21)</f>
         <v>15.059999999999999</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>_xlfn.STDEV.S(C2:C6)</f>
         <v>1.1379806676741042</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f>_xlfn.STDEV.S(C17:C21)</f>
         <v>2.0827865949251927</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>11.8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>AVERAGE(C7:C11)</f>
         <v>15.219999999999999</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>AVERAGE(C22:C26)</f>
         <v>18.3</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>_xlfn.STDEV.S(C7:C11)</f>
         <v>0.92032602918748352</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f>_xlfn.STDEV.S(C22:C26)</f>
         <v>3.5874782229304123</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>10.1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f>AVERAGE(C12:C16)</f>
         <v>20.56</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f>AVERAGE(C27:C31)</f>
         <v>28</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f>_xlfn.STDEV.S(C12:C16)</f>
         <v>1.9781304304822782</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f>_xlfn.STDEV.S(C27:C31)</f>
         <v>2.9765752132274419</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>15.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>16.3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>15.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>14.7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>23.1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>0.2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>0.2</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>18.2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>0.5</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>14.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>0.5</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>15.6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>0.5</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>12.4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>0.5</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>0.5</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>0.5</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>12.4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>0.5</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>0.5</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>0.5</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>20.2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>0.5</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>21.9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>0.5</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>25.3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>0.5</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>28.2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>0.5</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>29.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>0.5</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>0.5</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>25.1</v>
       </c>
     </row>
@@ -4306,135 +4305,134 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="13"/>
+    <col min="1" max="2" width="10.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>1.2</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>1.8</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>1.3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>1.2</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>1.7</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>1.9</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>2.6</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0.78524945069896457</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1.8</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>2.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>2.7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>2.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>0.5</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>0.75</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>2.5</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>2.6</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>4.5</v>
       </c>
     </row>
@@ -4449,12 +4447,12 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4462,123 +4460,123 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>11.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>11.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>10.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>15.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>16.3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>15.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>14.7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>23.1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>18.2</v>
       </c>
     </row>

--- a/lecture/Bio_Data_Science/barplot_excel.xlsx
+++ b/lecture/Bio_Data_Science/barplot_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\teaching\lecture\Bio_Data_Science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/Bio_Data_Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522F65BA-F290-49B2-A617-98DC9C5F535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A950FF-EB96-B042-BC17-B88168EC859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19740" activeTab="3" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="1-faktoriell" sheetId="1" r:id="rId1"/>
@@ -195,10 +195,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -209,6 +210,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -217,9 +221,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3679,173 +3680,173 @@
       <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>11.3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <f>AVERAGE(B2:B6)</f>
         <v>11.1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <f>_xlfn.STDEV.S(B2:B6)</f>
         <v>1.1379806676741042</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>12.5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <f>AVERAGE(B7:B11)</f>
         <v>15.219999999999999</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <f>_xlfn.STDEV.S(B7:B11)</f>
         <v>0.92032602918748352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>11.8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <f>AVERAGE(B12:B16)</f>
         <v>20.56</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <f>_xlfn.STDEV.S(B12:B16)</f>
         <v>1.9781304304822782</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>10.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>15.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>16.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>15.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>14.7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>23.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>18.2</v>
       </c>
     </row>
@@ -3862,12 +3863,12 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3877,413 +3878,413 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>0.2</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>11.3</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
         <v>0.2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>0.5</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="7">
         <v>0.2</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>0.2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>12.5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <f>AVERAGE(C2:C6)</f>
         <v>11.1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <f>AVERAGE(C17:C21)</f>
         <v>15.059999999999999</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <f>_xlfn.STDEV.S(C2:C6)</f>
         <v>1.1379806676741042</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <f>_xlfn.STDEV.S(C17:C21)</f>
         <v>2.0827865949251927</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>0.2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>11.8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <f>AVERAGE(C7:C11)</f>
         <v>15.219999999999999</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <f>AVERAGE(C22:C26)</f>
         <v>18.3</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <f>_xlfn.STDEV.S(C7:C11)</f>
         <v>0.92032602918748352</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <f>_xlfn.STDEV.S(C22:C26)</f>
         <v>3.5874782229304123</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>0.2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>10.1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <f>AVERAGE(C12:C16)</f>
         <v>20.56</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <f>AVERAGE(C27:C31)</f>
         <v>28</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <f>_xlfn.STDEV.S(C12:C16)</f>
         <v>1.9781304304822782</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <f>_xlfn.STDEV.S(C27:C31)</f>
         <v>2.9765752132274419</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>0.2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>0.2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>15.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>0.2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>0.2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>16.3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>0.2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>15.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>0.2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>14.7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>0.2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>0.2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>0.2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>23.1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>0.2</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>0.2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>18.2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>0.5</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>14.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>0.5</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>15.6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>0.5</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>12.4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>0.5</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>0.5</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>0.5</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="10">
         <v>12.4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>0.5</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="10">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <v>0.5</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="10">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>0.5</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="10">
         <v>20.2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <v>0.5</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="10">
         <v>21.9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="11">
         <v>0.5</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="11">
         <v>25.3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="11">
         <v>0.5</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="11">
         <v>28.2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="11">
         <v>0.5</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="11">
         <v>29.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="11">
         <v>0.5</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="11">
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="11">
         <v>0.5</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="11">
         <v>25.1</v>
       </c>
     </row>
@@ -4305,134 +4306,135 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="11"/>
+    <col min="1" max="2" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>1.2</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="15">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+    <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>1.8</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>1.3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="15">
         <v>1.2</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>1.7</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="15">
         <v>1.9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>2.6</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>0.78524945069896457</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>1.8</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="15">
         <v>2.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>2.7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="15">
         <v>2.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>0.5</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>0.75</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="15">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>2.5</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="15">
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>2.6</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="15">
         <v>4.5</v>
       </c>
     </row>
@@ -4447,12 +4449,12 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4460,123 +4462,123 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>11.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>11.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>10.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>15.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>16.3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>15.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>14.7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>23.1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>18.2</v>
       </c>
     </row>

--- a/lecture/Bio_Data_Science/barplot_excel.xlsx
+++ b/lecture/Bio_Data_Science/barplot_excel.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/Bio_Data_Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A950FF-EB96-B042-BC17-B88168EC859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21344D13-14AB-C64D-92F8-1FA9035E1EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19740" activeTab="3" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19740" activeTab="5" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="1-faktoriell" sheetId="1" r:id="rId1"/>
     <sheet name="2-faktoriell" sheetId="3" r:id="rId2"/>
     <sheet name="Lineare Regression" sheetId="5" r:id="rId3"/>
     <sheet name="t-Test" sheetId="9" r:id="rId4"/>
+    <sheet name="1fac ANOVA" sheetId="10" r:id="rId5"/>
+    <sheet name="Tabelle8" sheetId="17" r:id="rId6"/>
+    <sheet name="2fac ANOVA" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="38">
   <si>
     <t>dose</t>
   </si>
@@ -70,12 +73,99 @@
   <si>
     <t>weight</t>
   </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Anova: Two-Factor With Replication</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Within</t>
+  </si>
+  <si>
+    <t>signifikant</t>
+  </si>
+  <si>
+    <t>nicht signifikant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,8 +187,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +252,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,15 +308,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -210,9 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -222,6 +344,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1302,7 +1443,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3356,6 +3497,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>639480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377C8351-D96D-95FD-8B45-123C34BB0FD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6140450" y="273050"/>
+          <a:ext cx="5535330" cy="3308350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171823</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>227643</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21E3420-A116-2D46-FC7A-5606CC899E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7634941" y="201707"/>
+          <a:ext cx="5860467" cy="3077881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -3689,164 +3928,164 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>11.3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>AVERAGE(B2:B6)</f>
         <v>11.1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>_xlfn.STDEV.S(B2:B6)</f>
         <v>1.1379806676741042</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>12.5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>AVERAGE(B7:B11)</f>
         <v>15.219999999999999</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>_xlfn.STDEV.S(B7:B11)</f>
         <v>0.92032602918748352</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>11.8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>AVERAGE(B12:B16)</f>
         <v>20.56</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>_xlfn.STDEV.S(B12:B16)</f>
         <v>1.9781304304822782</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>10.1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>15.2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>16.3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>15.9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>14.7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>20.100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>23.1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>19.399999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>18.2</v>
       </c>
     </row>
@@ -3878,413 +4117,413 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>0.2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>11.3</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <v>0.2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.5</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>12.5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>AVERAGE(C2:C6)</f>
         <v>11.1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>AVERAGE(C17:C21)</f>
         <v>15.059999999999999</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>_xlfn.STDEV.S(C2:C6)</f>
         <v>1.1379806676741042</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f>_xlfn.STDEV.S(C17:C21)</f>
         <v>2.0827865949251927</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>11.8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>AVERAGE(C7:C11)</f>
         <v>15.219999999999999</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>AVERAGE(C22:C26)</f>
         <v>18.3</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>_xlfn.STDEV.S(C7:C11)</f>
         <v>0.92032602918748352</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f>_xlfn.STDEV.S(C22:C26)</f>
         <v>3.5874782229304123</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>10.1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f>AVERAGE(C12:C16)</f>
         <v>20.56</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f>AVERAGE(C27:C31)</f>
         <v>28</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f>_xlfn.STDEV.S(C12:C16)</f>
         <v>1.9781304304822782</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f>_xlfn.STDEV.S(C27:C31)</f>
         <v>2.9765752132274419</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>15.2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>16.3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>15.9</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>14.7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>20.100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>23.1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>0.2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>19.399999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>0.2</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>18.2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>0.5</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>14.2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>0.5</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>15.6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>0.5</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>12.4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>0.5</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>18.100000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>0.5</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>0.5</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>12.4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>0.5</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>18.600000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>0.5</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>0.5</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>20.2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>0.5</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>21.9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>0.5</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>25.3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>0.5</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>28.2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>0.5</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>29.1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>0.5</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>32.299999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>0.5</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>25.1</v>
       </c>
     </row>
@@ -4308,133 +4547,132 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="13"/>
+    <col min="1" max="2" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>1.2</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="12">
         <v>1.8</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>1.3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>1.2</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>1.7</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>1.9</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>2.6</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0.78524945069896457</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>1.8</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>2.7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>2.8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>0.5</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>0.75</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+      <c r="A11" s="12">
         <v>2.5</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="A12" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="12">
         <v>2.6</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>4.5</v>
       </c>
     </row>
@@ -4448,8 +4686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDD73C3-8093-E542-9966-37106AA01CA5}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4463,126 +4701,1761 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>11.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>11.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>10.1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>15.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>16.3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>15.9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>14.7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>20.100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>23.1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>19.399999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>18.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D797C9-CEE7-0B47-9306-B18B19950458}">
+  <dimension ref="B1:G22"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="F2" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="F4" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="F5" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="F6" s="21">
+        <v>4.3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F7" s="21">
+        <v>7.9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="F8" s="21">
+        <v>6.1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="21">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="21">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="21">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="21">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FBB8EB-2723-D74E-851D-4939F1B82D3D}">
+  <dimension ref="B1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="15">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15">
+        <v>135.79</v>
+      </c>
+      <c r="D6" s="15">
+        <v>166.8</v>
+      </c>
+      <c r="E6" s="15">
+        <v>201.17000000000002</v>
+      </c>
+      <c r="F6" s="15">
+        <v>503.76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15">
+        <v>13.578999999999999</v>
+      </c>
+      <c r="D7" s="15">
+        <v>16.68</v>
+      </c>
+      <c r="E7" s="15">
+        <v>20.117000000000001</v>
+      </c>
+      <c r="F7" s="15">
+        <v>16.791999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3.5230544444444707</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5.0907999999999447</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1.3330455555555563</v>
+      </c>
+      <c r="F8" s="15">
+        <v>10.463361379310362</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="15">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15">
+        <v>10</v>
+      </c>
+      <c r="F11" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="15">
+        <v>152.47</v>
+      </c>
+      <c r="D12" s="15">
+        <v>165.63000000000002</v>
+      </c>
+      <c r="E12" s="15">
+        <v>169.76</v>
+      </c>
+      <c r="F12" s="15">
+        <v>487.85999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="15">
+        <v>15.247</v>
+      </c>
+      <c r="D13" s="15">
+        <v>16.563000000000002</v>
+      </c>
+      <c r="E13" s="15">
+        <v>16.975999999999999</v>
+      </c>
+      <c r="F13" s="15">
+        <v>16.261999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="15">
+        <v>5.5198233333333313</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1.4733122222222215</v>
+      </c>
+      <c r="E14" s="15">
+        <v>3.0010044444444426</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3.6639131034483179</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="15">
+        <v>20</v>
+      </c>
+      <c r="D17" s="15">
+        <v>20</v>
+      </c>
+      <c r="E17" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="15">
+        <v>288.26</v>
+      </c>
+      <c r="D18" s="15">
+        <v>332.43000000000006</v>
+      </c>
+      <c r="E18" s="15">
+        <v>370.93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="15">
+        <v>14.413</v>
+      </c>
+      <c r="D19" s="15">
+        <v>16.621500000000001</v>
+      </c>
+      <c r="E19" s="15">
+        <v>18.546500000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="15">
+        <v>5.0156326315789936</v>
+      </c>
+      <c r="D20" s="15">
+        <v>3.112918684210471</v>
+      </c>
+      <c r="E20" s="15">
+        <v>4.6492555263158035</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="23" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="15">
+        <v>4.2135000000001241</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15">
+        <v>4.2135000000001241</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1.2677874373653906</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.2651614498187525</v>
+      </c>
+      <c r="H25" s="15">
+        <v>4.0195409602054486</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="15">
+        <v>171.12613000000005</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15">
+        <v>85.563065000000023</v>
+      </c>
+      <c r="F26" s="15">
+        <v>25.744815215254579</v>
+      </c>
+      <c r="G26" s="24">
+        <v>1.4059429639070976E-8</v>
+      </c>
+      <c r="H26" s="15">
+        <v>3.1682459672513383</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="15">
+        <v>59.095469999999921</v>
+      </c>
+      <c r="D27" s="15">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15">
+        <v>29.54773499999996</v>
+      </c>
+      <c r="F27" s="15">
+        <v>8.8905297817967259</v>
+      </c>
+      <c r="G27" s="15">
+        <v>4.5958428359835831E-4</v>
+      </c>
+      <c r="H27" s="15">
+        <v>3.1682459672513383</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="15">
+        <v>179.46935999999999</v>
+      </c>
+      <c r="D28" s="15">
+        <v>54</v>
+      </c>
+      <c r="E28" s="15">
+        <v>3.3235066666666664</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="16">
+        <v>413.90446000000009</v>
+      </c>
+      <c r="D30" s="16">
+        <v>59</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07B91FF-2480-F545-9867-D24399FD259D}">
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="19">
+        <v>12.04</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="19">
+        <v>12.04</v>
+      </c>
+      <c r="H2" s="3">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="I2" s="4">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="19">
+        <v>11.98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="19">
+        <v>11.98</v>
+      </c>
+      <c r="H3" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I3" s="4">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="19">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="19">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="I4" s="4">
+        <v>19.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="19">
+        <v>13.42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="19">
+        <v>13.42</v>
+      </c>
+      <c r="H5" s="3">
+        <v>15.33</v>
+      </c>
+      <c r="I5" s="4">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="19">
+        <v>12.37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="19">
+        <v>12.37</v>
+      </c>
+      <c r="H6" s="3">
+        <v>15.15</v>
+      </c>
+      <c r="I6" s="4">
+        <v>21.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="19">
+        <v>16.36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="19">
+        <v>16.36</v>
+      </c>
+      <c r="H7" s="3">
+        <v>19.57</v>
+      </c>
+      <c r="I7" s="4">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="19">
+        <v>14.91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="19">
+        <v>14.91</v>
+      </c>
+      <c r="H8" s="3">
+        <v>15.44</v>
+      </c>
+      <c r="I8" s="4">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="19">
+        <v>11.17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="19">
+        <v>11.17</v>
+      </c>
+      <c r="H9" s="3">
+        <v>16.09</v>
+      </c>
+      <c r="I9" s="4">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="19">
+        <v>12.38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="19">
+        <v>12.38</v>
+      </c>
+      <c r="H10" s="3">
+        <v>15.91</v>
+      </c>
+      <c r="I10" s="4">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="19">
+        <v>15.06</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="19">
+        <v>15.06</v>
+      </c>
+      <c r="H11" s="3">
+        <v>13.01</v>
+      </c>
+      <c r="I11" s="4">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="19">
+        <v>17.59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="19">
+        <v>17.59</v>
+      </c>
+      <c r="H12" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I12" s="4">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="19">
+        <v>11.24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="19">
+        <v>11.24</v>
+      </c>
+      <c r="H13" s="3">
+        <v>15.28</v>
+      </c>
+      <c r="I13" s="4">
+        <v>17.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="19">
+        <v>12.44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="19">
+        <v>12.44</v>
+      </c>
+      <c r="H14" s="3">
+        <v>16.91</v>
+      </c>
+      <c r="I14" s="4">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="19">
+        <v>13.63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="19">
+        <v>13.63</v>
+      </c>
+      <c r="H15" s="3">
+        <v>15.08</v>
+      </c>
+      <c r="I15" s="4">
+        <v>18.579999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="19">
+        <v>14.92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="19">
+        <v>14.92</v>
+      </c>
+      <c r="H16" s="3">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="I16" s="4">
+        <v>16.850000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="19">
+        <v>17.43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="19">
+        <v>17.43</v>
+      </c>
+      <c r="H17" s="3">
+        <v>16.34</v>
+      </c>
+      <c r="I17" s="4">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="19">
+        <v>18.3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="19">
+        <v>18.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>17.61</v>
+      </c>
+      <c r="I18" s="4">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="19">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="19">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="H19" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="I19" s="4">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="19">
+        <v>16.34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="19">
+        <v>16.34</v>
+      </c>
+      <c r="H20" s="3">
+        <v>17.52</v>
+      </c>
+      <c r="I20" s="4">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="19">
+        <v>14.23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="19">
+        <v>14.23</v>
+      </c>
+      <c r="H21" s="3">
+        <v>16.93</v>
+      </c>
+      <c r="I21" s="4">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3">
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3">
+        <v>15.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3">
+        <v>19.57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <v>15.91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="3">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="3">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="3">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="3">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="4">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="4">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="4">
+        <v>19.78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="4">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="4">
+        <v>21.56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="4">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="4">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="4">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="4">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="4">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="4">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="4">
+        <v>17.59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="4">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="4">
+        <v>18.579999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="4">
+        <v>16.850000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="4">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="4">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="4">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="4">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="4">
+        <v>18.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>